--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H2">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I2">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J2">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N2">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O2">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P2">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q2">
-        <v>26.26951227246334</v>
+        <v>17.58042788060445</v>
       </c>
       <c r="R2">
-        <v>236.42561045217</v>
+        <v>158.22385092544</v>
       </c>
       <c r="S2">
-        <v>0.002640211394537928</v>
+        <v>0.003115849586695525</v>
       </c>
       <c r="T2">
-        <v>0.003309022898184874</v>
+        <v>0.003478869877779968</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H3">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I3">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J3">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P3">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q3">
-        <v>308.7066709619087</v>
+        <v>266.8075123534867</v>
       </c>
       <c r="R3">
-        <v>2778.360038657178</v>
+        <v>2401.26761118138</v>
       </c>
       <c r="S3">
-        <v>0.0310264942032391</v>
+        <v>0.0472873631256175</v>
       </c>
       <c r="T3">
-        <v>0.03888604525429928</v>
+        <v>0.05279670234397268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H4">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I4">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J4">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N4">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O4">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P4">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q4">
-        <v>668.9656563412556</v>
+        <v>801.8521217821911</v>
       </c>
       <c r="R4">
-        <v>6020.6909070713</v>
+        <v>7216.669096039721</v>
       </c>
       <c r="S4">
-        <v>0.06723424211716839</v>
+        <v>0.1421154603980019</v>
       </c>
       <c r="T4">
-        <v>0.08426584597281954</v>
+        <v>0.1586729977135295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H5">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I5">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J5">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N5">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O5">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P5">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q5">
-        <v>261.3719049667453</v>
+        <v>249.5345732491</v>
       </c>
       <c r="R5">
-        <v>1568.231429800472</v>
+        <v>1497.2074394946</v>
       </c>
       <c r="S5">
-        <v>0.02626912424364457</v>
+        <v>0.04422601100524069</v>
       </c>
       <c r="T5">
-        <v>0.02194903378250043</v>
+        <v>0.03291911953590541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H6">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I6">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J6">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N6">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O6">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P6">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q6">
-        <v>817.5791198878101</v>
+        <v>562.114279193249</v>
       </c>
       <c r="R6">
-        <v>7358.21207899029</v>
+        <v>5059.028512739241</v>
       </c>
       <c r="S6">
-        <v>0.08217060468712206</v>
+        <v>0.09962576317225103</v>
       </c>
       <c r="T6">
-        <v>0.102985849174767</v>
+        <v>0.1112329260150042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>13.149005</v>
       </c>
       <c r="H7">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I7">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J7">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N7">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O7">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P7">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q7">
-        <v>23.782145128325</v>
+        <v>18.41519903450667</v>
       </c>
       <c r="R7">
-        <v>214.039306154925</v>
+        <v>165.73679131056</v>
       </c>
       <c r="S7">
-        <v>0.002390219121813578</v>
+        <v>0.003263799418891654</v>
       </c>
       <c r="T7">
-        <v>0.002995703231234899</v>
+        <v>0.003644056996197828</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>13.149005</v>
       </c>
       <c r="H8">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I8">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J8">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P8">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q8">
-        <v>279.4763288618049</v>
+        <v>279.476328861805</v>
       </c>
       <c r="R8">
-        <v>2515.286959756244</v>
+        <v>2515.286959756245</v>
       </c>
       <c r="S8">
-        <v>0.02808870527596493</v>
+        <v>0.04953270817349969</v>
       </c>
       <c r="T8">
-        <v>0.03520406325448841</v>
+        <v>0.05530364725095835</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>13.149005</v>
       </c>
       <c r="H9">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I9">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J9">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N9">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O9">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P9">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q9">
-        <v>605.6236659425831</v>
+        <v>839.9264522538367</v>
       </c>
       <c r="R9">
-        <v>5450.612993483249</v>
+        <v>7559.33807028453</v>
       </c>
       <c r="S9">
-        <v>0.06086806968622493</v>
+        <v>0.1488635263534766</v>
       </c>
       <c r="T9">
-        <v>0.07628701125096123</v>
+        <v>0.1662072649278434</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>13.149005</v>
       </c>
       <c r="H10">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I10">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J10">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N10">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O10">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P10">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q10">
-        <v>236.6235243317299</v>
+        <v>261.383219087775</v>
       </c>
       <c r="R10">
-        <v>1419.74114599038</v>
+        <v>1568.29931452665</v>
       </c>
       <c r="S10">
-        <v>0.02378179384058177</v>
+        <v>0.04632599392318021</v>
       </c>
       <c r="T10">
-        <v>0.01987075745555839</v>
+        <v>0.03448221752117971</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>13.149005</v>
       </c>
       <c r="H11">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I11">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J11">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N11">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O11">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P11">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q11">
-        <v>740.1654465980248</v>
+        <v>588.8051418192234</v>
       </c>
       <c r="R11">
-        <v>6661.489019382224</v>
+        <v>5299.24627637301</v>
       </c>
       <c r="S11">
-        <v>0.0743901609471378</v>
+        <v>0.1043562915670372</v>
       </c>
       <c r="T11">
-        <v>0.09323448360346852</v>
+        <v>0.1165145971229018</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H12">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I12">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J12">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N12">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O12">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P12">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q12">
-        <v>5.986307962121667</v>
+        <v>2.986014494805334</v>
       </c>
       <c r="R12">
-        <v>53.876771659095</v>
+        <v>26.874130453248</v>
       </c>
       <c r="S12">
-        <v>0.0006016525289422388</v>
+        <v>0.0005292232983572955</v>
       </c>
       <c r="T12">
-        <v>0.0007540615873181386</v>
+        <v>0.0005908818574349446</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H13">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I13">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J13">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>63.763683</v>
       </c>
       <c r="O13">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P13">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q13">
-        <v>70.34821138558033</v>
+        <v>45.316934526344</v>
       </c>
       <c r="R13">
-        <v>633.133902470223</v>
+        <v>407.852410737096</v>
       </c>
       <c r="S13">
-        <v>0.007070331087961054</v>
+        <v>0.008031701655566437</v>
       </c>
       <c r="T13">
-        <v>0.008861369023788375</v>
+        <v>0.008967456284209892</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H14">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I14">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J14">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N14">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O14">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P14">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q14">
-        <v>152.4441867593944</v>
+        <v>136.1936168216693</v>
       </c>
       <c r="R14">
-        <v>1371.99768083455</v>
+        <v>1225.742551395024</v>
       </c>
       <c r="S14">
-        <v>0.01532136854079017</v>
+        <v>0.02413813972938278</v>
       </c>
       <c r="T14">
-        <v>0.01920253788688652</v>
+        <v>0.02695041749407765</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H15">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I15">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J15">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N15">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O15">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P15">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q15">
-        <v>59.56154417900865</v>
+        <v>42.38314662972</v>
       </c>
       <c r="R15">
-        <v>357.369265074052</v>
+        <v>254.29887977832</v>
       </c>
       <c r="S15">
-        <v>0.005986219537944499</v>
+        <v>0.007511734686205398</v>
       </c>
       <c r="T15">
-        <v>0.005001755431553689</v>
+        <v>0.005591272792563189</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H16">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I16">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J16">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N16">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O16">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P16">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q16">
-        <v>186.310287921835</v>
+        <v>95.47443309157867</v>
       </c>
       <c r="R16">
-        <v>1676.792591296515</v>
+        <v>859.269897824208</v>
       </c>
       <c r="S16">
-        <v>0.01872507338503185</v>
+        <v>0.01692131584673108</v>
       </c>
       <c r="T16">
-        <v>0.02346846041549892</v>
+        <v>0.01889277847138452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H17">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I17">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J17">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N17">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O17">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P17">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q17">
-        <v>62.97678835918751</v>
+        <v>9.924745131754667</v>
       </c>
       <c r="R17">
-        <v>377.8607301551251</v>
+        <v>59.548470790528</v>
       </c>
       <c r="S17">
-        <v>0.006329467882493684</v>
+        <v>0.001759002296579654</v>
       </c>
       <c r="T17">
-        <v>0.005288554848253701</v>
+        <v>0.00130929300538039</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H18">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I18">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J18">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>63.763683</v>
       </c>
       <c r="O18">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P18">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q18">
-        <v>740.0729210574875</v>
+        <v>150.621849327526</v>
       </c>
       <c r="R18">
-        <v>4440.437526344926</v>
+        <v>903.7310959651561</v>
       </c>
       <c r="S18">
-        <v>0.07438086168859509</v>
+        <v>0.02669531311534561</v>
       </c>
       <c r="T18">
-        <v>0.0621485524539116</v>
+        <v>0.01987034741587595</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H19">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I19">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J19">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N19">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O19">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P19">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q19">
-        <v>1603.733945343542</v>
+        <v>452.6725968271107</v>
       </c>
       <c r="R19">
-        <v>9622.403672061249</v>
+        <v>2716.035580962664</v>
       </c>
       <c r="S19">
-        <v>0.161182917763636</v>
+        <v>0.08022897584240414</v>
       </c>
       <c r="T19">
-        <v>0.134675570998982</v>
+        <v>0.05971750980856966</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H20">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I20">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J20">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N20">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O20">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P20">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q20">
-        <v>626.5956890026749</v>
+        <v>140.87069199213</v>
       </c>
       <c r="R20">
-        <v>2506.3827560107</v>
+        <v>563.48276796852</v>
       </c>
       <c r="S20">
-        <v>0.06297585812460442</v>
+        <v>0.02496707647857883</v>
       </c>
       <c r="T20">
-        <v>0.03507943964020331</v>
+        <v>0.01238930298225082</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H21">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I21">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J21">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N21">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O21">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P21">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q21">
-        <v>1960.010017164938</v>
+        <v>317.3324900736814</v>
       </c>
       <c r="R21">
-        <v>11760.06010298963</v>
+        <v>1903.994940442088</v>
       </c>
       <c r="S21">
-        <v>0.1969903638504855</v>
+        <v>0.05624210711799503</v>
       </c>
       <c r="T21">
-        <v>0.1645943013127826</v>
+        <v>0.04186316163465621</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H22">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I22">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J22">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N22">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O22">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P22">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q22">
-        <v>6.472144922650001</v>
+        <v>3.358692101109333</v>
       </c>
       <c r="R22">
-        <v>58.24930430385001</v>
+        <v>30.228228909984</v>
       </c>
       <c r="S22">
-        <v>0.0006504814628703029</v>
+        <v>0.0005952744419050639</v>
       </c>
       <c r="T22">
-        <v>0.0008152597401615772</v>
+        <v>0.0006646284640305942</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H23">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I23">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J23">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>63.763683</v>
       </c>
       <c r="O23">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P23">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q23">
-        <v>76.05753362801001</v>
+        <v>50.97283697212699</v>
       </c>
       <c r="R23">
-        <v>684.51780265209</v>
+        <v>458.755532749143</v>
       </c>
       <c r="S23">
-        <v>0.00764414522973911</v>
+        <v>0.009034119879842173</v>
       </c>
       <c r="T23">
-        <v>0.00958054027589874</v>
+        <v>0.01008666389303062</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H24">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I24">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J24">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N24">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O24">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P24">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q24">
-        <v>164.8162566251667</v>
+        <v>153.1916291217713</v>
       </c>
       <c r="R24">
-        <v>1483.3463096265</v>
+        <v>1378.724662095942</v>
       </c>
       <c r="S24">
-        <v>0.01656482062679908</v>
+        <v>0.02715076547203321</v>
       </c>
       <c r="T24">
-        <v>0.02076097803069907</v>
+        <v>0.03031403716104818</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H25">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I25">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J25">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N25">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O25">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P25">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q25">
-        <v>64.39544176186</v>
+        <v>47.67288975088499</v>
       </c>
       <c r="R25">
-        <v>386.37265057116</v>
+        <v>286.0373385053099</v>
       </c>
       <c r="S25">
-        <v>0.00647204932214082</v>
+        <v>0.008449257028081456</v>
       </c>
       <c r="T25">
-        <v>0.005407688048376642</v>
+        <v>0.006289106699314193</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H26">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I26">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J26">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N26">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O26">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P26">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q26">
-        <v>201.43086383805</v>
+        <v>107.3903776557127</v>
       </c>
       <c r="R26">
-        <v>1812.87777454245</v>
+        <v>966.513398901414</v>
       </c>
       <c r="S26">
-        <v>0.02024476345053085</v>
+        <v>0.01903322638709997</v>
       </c>
       <c r="T26">
-        <v>0.02537311442740252</v>
+        <v>0.0212507427309004</v>
       </c>
     </row>
   </sheetData>
